--- a/ExportLNDreestr/Sourse/РЛК.xlsx
+++ b/ExportLNDreestr/Sourse/РЛК.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Реестр утв. ЛНД Компании'!$A$8:$Q$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -630,9 +630,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="186" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -751,9 +748,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="7"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1153,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1352,18 +1348,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,77 +1357,97 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,47 +1458,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1875,2518 +1850,2509 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="77" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="77" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="77" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="77" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="77" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="77" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="77" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="77" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="77" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="77" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="77" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="77" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
     <row r="2" spans="1:17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:17" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
       <c r="M4" s="1"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-    </row>
-    <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82" t="s">
+      <c r="G5" s="90"/>
+      <c r="H5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="89"/>
+      <c r="J5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82" t="s">
+      <c r="K5" s="90"/>
+      <c r="L5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="81" t="s">
+      <c r="M5" s="89"/>
+      <c r="N5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="119" t="s">
+      <c r="O5" s="90"/>
+      <c r="P5" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="119"/>
-    </row>
-    <row r="6" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91" t="s">
+      <c r="Q5" s="91"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
+      <c r="B6" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="84" t="s">
+      <c r="N6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="84" t="s">
+      <c r="O6" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="86" t="s">
+      <c r="P6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="86" t="s">
+      <c r="Q6" s="79" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="72">
         <v>1</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="72">
         <v>2</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="72">
         <v>3</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="72">
         <v>4</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="72">
         <v>5</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="73">
         <v>6</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="73">
         <v>7</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="74">
         <v>8</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="74">
         <v>9</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="73">
         <v>10</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="73">
         <v>11</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="74">
         <v>12</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="74">
         <v>13</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <v>14</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="73">
         <v>15</v>
       </c>
-      <c r="P8" s="78">
+      <c r="P8" s="74">
         <v>16</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="74">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="79"/>
-    </row>
-    <row r="10" spans="1:17" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="113"/>
-    </row>
-    <row r="11" spans="1:17" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="113"/>
-    </row>
-    <row r="12" spans="1:17" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
+    <row r="9" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="110"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="112"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="112"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="112"/>
+      <c r="B12" s="76"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="76"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="76"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="76"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="76"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="76"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="76"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="76"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="76"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="76"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+      <c r="A24" s="112"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="76"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="76"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="76"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="76"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+      <c r="A29" s="112"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="A30" s="112"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="112"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+      <c r="A32" s="112"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+      <c r="A33" s="112"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
+      <c r="A34" s="112"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+      <c r="A35" s="112"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+      <c r="A36" s="112"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
+      <c r="A37" s="112"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
+      <c r="A38" s="112"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
+      <c r="A39" s="112"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+      <c r="A40" s="112"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="A41" s="112"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
+      <c r="A42" s="112"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
+      <c r="A43" s="112"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
+      <c r="A44" s="112"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
+      <c r="A45" s="112"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
+      <c r="A46" s="112"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="112"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
+      <c r="A48" s="112"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
+      <c r="A49" s="112"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
+      <c r="A50" s="112"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
+      <c r="A51" s="112"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
+      <c r="A52" s="112"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
+      <c r="A53" s="112"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
+      <c r="A54" s="112"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
+      <c r="A55" s="112"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
+      <c r="A56" s="112"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
+      <c r="A57" s="112"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
+      <c r="A58" s="112"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
+      <c r="A59" s="112"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
+      <c r="A60" s="112"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
+      <c r="A61" s="112"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
+      <c r="A62" s="112"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
+      <c r="A63" s="112"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
+      <c r="A64" s="112"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="73"/>
+      <c r="A65" s="112"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="73"/>
+      <c r="A66" s="112"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="73"/>
+      <c r="A67" s="112"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="73"/>
+      <c r="A68" s="112"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="73"/>
+      <c r="A69" s="112"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="73"/>
+      <c r="A70" s="112"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="73"/>
+      <c r="A71" s="112"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="73"/>
+      <c r="A72" s="112"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="73"/>
+      <c r="A73" s="112"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="73"/>
+      <c r="A74" s="112"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="73"/>
+      <c r="A75" s="112"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="73"/>
+      <c r="A76" s="112"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="73"/>
+      <c r="A77" s="112"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="73"/>
+      <c r="A78" s="112"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="73"/>
+      <c r="A79" s="112"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="73"/>
+      <c r="A80" s="112"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="73"/>
+      <c r="A81" s="112"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="73"/>
+      <c r="A82" s="112"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="73"/>
+      <c r="A83" s="112"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="73"/>
+      <c r="A84" s="112"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="73"/>
+      <c r="A85" s="112"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="73"/>
+      <c r="A86" s="112"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="73"/>
+      <c r="A87" s="112"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="73"/>
+      <c r="A88" s="112"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="73"/>
+      <c r="A89" s="112"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="73"/>
+      <c r="A90" s="112"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="73"/>
+      <c r="A91" s="112"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="73"/>
+      <c r="A92" s="112"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="73"/>
+      <c r="A93" s="112"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="73"/>
+      <c r="A94" s="112"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="73"/>
+      <c r="A95" s="112"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="73"/>
+      <c r="A96" s="112"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="73"/>
+      <c r="A97" s="112"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="73"/>
+      <c r="A98" s="112"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="73"/>
+      <c r="A99" s="112"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="73"/>
+      <c r="A100" s="112"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="73"/>
+      <c r="A101" s="112"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="73"/>
+      <c r="A102" s="112"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="73"/>
+      <c r="A103" s="112"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="73"/>
+      <c r="A104" s="112"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="73"/>
+      <c r="A105" s="112"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="73"/>
+      <c r="A106" s="112"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="73"/>
+      <c r="A107" s="112"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="73"/>
+      <c r="A108" s="112"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="73"/>
+      <c r="A109" s="112"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="73"/>
+      <c r="A110" s="112"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="73"/>
+      <c r="A111" s="112"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="73"/>
+      <c r="A112" s="112"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="73"/>
+      <c r="A113" s="112"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="73"/>
+      <c r="A114" s="112"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="73"/>
+      <c r="A115" s="112"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="73"/>
+      <c r="A116" s="112"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="73"/>
+      <c r="A117" s="112"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="73"/>
+      <c r="A118" s="112"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="73"/>
+      <c r="A119" s="112"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="73"/>
+      <c r="A120" s="112"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="73"/>
+      <c r="A121" s="112"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="73"/>
+      <c r="A122" s="112"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="73"/>
+      <c r="A123" s="112"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="73"/>
+      <c r="A124" s="112"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="73"/>
+      <c r="A125" s="112"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="73"/>
+      <c r="A126" s="112"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="73"/>
+      <c r="A127" s="112"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="73"/>
+      <c r="A128" s="112"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="73"/>
+      <c r="A129" s="112"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="73"/>
+      <c r="A130" s="112"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="73"/>
+      <c r="A131" s="112"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="73"/>
+      <c r="A132" s="112"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="73"/>
+      <c r="A133" s="112"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="73"/>
+      <c r="A134" s="112"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="73"/>
+      <c r="A135" s="112"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="73"/>
+      <c r="A136" s="112"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="73"/>
+      <c r="A137" s="112"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="73"/>
+      <c r="A138" s="112"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="73"/>
+      <c r="A139" s="112"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="73"/>
+      <c r="A140" s="112"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="73"/>
+      <c r="A141" s="112"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="73"/>
+      <c r="A142" s="112"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="73"/>
+      <c r="A143" s="112"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="73"/>
+      <c r="A144" s="112"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="73"/>
+      <c r="A145" s="112"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="73"/>
+      <c r="A146" s="112"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="73"/>
+      <c r="A147" s="112"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="73"/>
+      <c r="A148" s="112"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="73"/>
+      <c r="A149" s="112"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="73"/>
+      <c r="A150" s="112"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="73"/>
+      <c r="A151" s="112"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="73"/>
+      <c r="A152" s="112"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="73"/>
+      <c r="A153" s="112"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="73"/>
+      <c r="A154" s="112"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="73"/>
+      <c r="A155" s="112"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="73"/>
+      <c r="A156" s="112"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="73"/>
+      <c r="A157" s="112"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="73"/>
+      <c r="A158" s="112"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="73"/>
+      <c r="A159" s="112"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="73"/>
+      <c r="A160" s="112"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="73"/>
+      <c r="A161" s="112"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="73"/>
+      <c r="A162" s="112"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="73"/>
+      <c r="A163" s="112"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="73"/>
+      <c r="A164" s="112"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="73"/>
+      <c r="A165" s="112"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="73"/>
+      <c r="A166" s="112"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="73"/>
+      <c r="A167" s="112"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="73"/>
+      <c r="A168" s="112"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="73"/>
+      <c r="A169" s="112"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="73"/>
+      <c r="A170" s="112"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="73"/>
+      <c r="A171" s="112"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="73"/>
+      <c r="A172" s="112"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="73"/>
+      <c r="A173" s="112"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="73"/>
+      <c r="A174" s="112"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="73"/>
+      <c r="A175" s="112"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="73"/>
+      <c r="A176" s="112"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="73"/>
+      <c r="A177" s="112"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="73"/>
+      <c r="A178" s="112"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="73"/>
+      <c r="A179" s="112"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="73"/>
+      <c r="A180" s="112"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="73"/>
+      <c r="A181" s="112"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="73"/>
+      <c r="A182" s="112"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="73"/>
+      <c r="A183" s="112"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="73"/>
+      <c r="A184" s="112"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="73"/>
+      <c r="A185" s="112"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="73"/>
+      <c r="A186" s="112"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="73"/>
+      <c r="A187" s="112"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="73"/>
+      <c r="A188" s="112"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="73"/>
+      <c r="A189" s="112"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="73"/>
+      <c r="A190" s="112"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="73"/>
+      <c r="A191" s="112"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="73"/>
+      <c r="A192" s="112"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="73"/>
+      <c r="A193" s="112"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="73"/>
+      <c r="A194" s="112"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="73"/>
+      <c r="A195" s="112"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="73"/>
+      <c r="A196" s="112"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="73"/>
+      <c r="A197" s="112"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="73"/>
+      <c r="A198" s="112"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="73"/>
+      <c r="A199" s="112"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="73"/>
+      <c r="A200" s="112"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="73"/>
+      <c r="A201" s="112"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="73"/>
+      <c r="A202" s="112"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="73"/>
+      <c r="A203" s="112"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="73"/>
+      <c r="A204" s="112"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="73"/>
+      <c r="A205" s="112"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="73"/>
+      <c r="A206" s="112"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="73"/>
+      <c r="A207" s="112"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="73"/>
+      <c r="A208" s="112"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="73"/>
+      <c r="A209" s="112"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="73"/>
+      <c r="A210" s="112"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="73"/>
+      <c r="A211" s="112"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="73"/>
+      <c r="A212" s="112"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="73"/>
+      <c r="A213" s="112"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="73"/>
+      <c r="A214" s="112"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="73"/>
+      <c r="A215" s="112"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="73"/>
+      <c r="A216" s="112"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="73"/>
+      <c r="A217" s="112"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="73"/>
+      <c r="A218" s="112"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="73"/>
+      <c r="A219" s="112"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="73"/>
+      <c r="A220" s="112"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="73"/>
+      <c r="A221" s="112"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="73"/>
+      <c r="A222" s="112"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="73"/>
+      <c r="A223" s="112"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="73"/>
+      <c r="A224" s="112"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="73"/>
+      <c r="A225" s="112"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="73"/>
+      <c r="A226" s="112"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="73"/>
+      <c r="A227" s="112"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="73"/>
+      <c r="A228" s="112"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="73"/>
+      <c r="A229" s="112"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="73"/>
+      <c r="A230" s="112"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="73"/>
+      <c r="A231" s="112"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="73"/>
+      <c r="A232" s="112"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="73"/>
+      <c r="A233" s="112"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="73"/>
+      <c r="A234" s="112"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="73"/>
+      <c r="A235" s="112"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="73"/>
+      <c r="A236" s="112"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="73"/>
+      <c r="A237" s="112"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="73"/>
+      <c r="A238" s="112"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="73"/>
+      <c r="A239" s="112"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="73"/>
+      <c r="A240" s="112"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="73"/>
+      <c r="A241" s="112"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="73"/>
+      <c r="A242" s="112"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="73"/>
+      <c r="A243" s="112"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="73"/>
+      <c r="A244" s="112"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="73"/>
+      <c r="A245" s="112"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="73"/>
+      <c r="A246" s="112"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="73"/>
+      <c r="A247" s="112"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="73"/>
+      <c r="A248" s="112"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="73"/>
+      <c r="A249" s="112"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="73"/>
+      <c r="A250" s="112"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="73"/>
+      <c r="A251" s="112"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="73"/>
+      <c r="A252" s="112"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="73"/>
+      <c r="A253" s="112"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="73"/>
+      <c r="A254" s="112"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="73"/>
+      <c r="A255" s="112"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="73"/>
+      <c r="A256" s="112"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="73"/>
+      <c r="A257" s="112"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="73"/>
+      <c r="A258" s="112"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="73"/>
+      <c r="A259" s="112"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="73"/>
+      <c r="A260" s="112"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="73"/>
+      <c r="A261" s="112"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="73"/>
+      <c r="A262" s="112"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="73"/>
+      <c r="A263" s="112"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="73"/>
+      <c r="A264" s="112"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="73"/>
+      <c r="A265" s="112"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="73"/>
+      <c r="A266" s="112"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="73"/>
+      <c r="A267" s="112"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="73"/>
+      <c r="A268" s="112"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="73"/>
+      <c r="A269" s="112"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="73"/>
+      <c r="A270" s="112"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="73"/>
+      <c r="A271" s="112"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="73"/>
+      <c r="A272" s="112"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="73"/>
+      <c r="A273" s="112"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="73"/>
+      <c r="A274" s="112"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="73"/>
+      <c r="A275" s="112"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="73"/>
+      <c r="A276" s="112"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="73"/>
+      <c r="A277" s="112"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="73"/>
+      <c r="A278" s="112"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="73"/>
+      <c r="A279" s="112"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="73"/>
+      <c r="A280" s="112"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="73"/>
+      <c r="A281" s="112"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="73"/>
+      <c r="A282" s="112"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="73"/>
+      <c r="A283" s="112"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="73"/>
+      <c r="A284" s="112"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="73"/>
+      <c r="A285" s="112"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="73"/>
+      <c r="A286" s="112"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="73"/>
+      <c r="A287" s="112"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="73"/>
+      <c r="A288" s="112"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="73"/>
+      <c r="A289" s="112"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="73"/>
+      <c r="A290" s="112"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="73"/>
+      <c r="A291" s="112"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="73"/>
+      <c r="A292" s="112"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="73"/>
+      <c r="A293" s="112"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="73"/>
+      <c r="A294" s="112"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="73"/>
+      <c r="A295" s="112"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="73"/>
+      <c r="A296" s="112"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="73"/>
+      <c r="A297" s="112"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="73"/>
+      <c r="A298" s="112"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="73"/>
+      <c r="A299" s="112"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="73"/>
+      <c r="A300" s="112"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="73"/>
+      <c r="A301" s="112"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="73"/>
+      <c r="A302" s="112"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="73"/>
+      <c r="A303" s="112"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="73"/>
+      <c r="A304" s="112"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="73"/>
+      <c r="A305" s="112"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="73"/>
+      <c r="A306" s="112"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="73"/>
+      <c r="A307" s="112"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="73"/>
+      <c r="A308" s="112"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="73"/>
+      <c r="A309" s="112"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="73"/>
+      <c r="A310" s="112"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="73"/>
+      <c r="A311" s="112"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="73"/>
+      <c r="A312" s="112"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="73"/>
+      <c r="A313" s="112"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="73"/>
+      <c r="A314" s="112"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="73"/>
+      <c r="A315" s="112"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="73"/>
+      <c r="A316" s="112"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="73"/>
+      <c r="A317" s="112"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="73"/>
+      <c r="A318" s="112"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="73"/>
+      <c r="A319" s="112"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="73"/>
+      <c r="A320" s="112"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="73"/>
+      <c r="A321" s="112"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="73"/>
+      <c r="A322" s="112"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="73"/>
+      <c r="A323" s="112"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="73"/>
+      <c r="A324" s="112"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="73"/>
+      <c r="A325" s="112"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="73"/>
+      <c r="A326" s="112"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="73"/>
+      <c r="A327" s="112"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="73"/>
+      <c r="A328" s="112"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="73"/>
+      <c r="A329" s="112"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="73"/>
+      <c r="A330" s="112"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="73"/>
+      <c r="A331" s="112"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="73"/>
+      <c r="A332" s="112"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="73"/>
+      <c r="A333" s="112"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="73"/>
+      <c r="A334" s="112"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="73"/>
+      <c r="A335" s="112"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="73"/>
+      <c r="A336" s="112"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="73"/>
+      <c r="A337" s="112"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="73"/>
+      <c r="A338" s="112"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="73"/>
+      <c r="A339" s="112"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="73"/>
+      <c r="A340" s="112"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="73"/>
+      <c r="A341" s="112"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="73"/>
+      <c r="A342" s="112"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="73"/>
+      <c r="A343" s="112"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="73"/>
+      <c r="A344" s="112"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="73"/>
+      <c r="A345" s="112"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="73"/>
+      <c r="A346" s="112"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="73"/>
+      <c r="A347" s="112"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="73"/>
+      <c r="A348" s="112"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="73"/>
+      <c r="A349" s="112"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="73"/>
+      <c r="A350" s="112"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="73"/>
+      <c r="A351" s="112"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="73"/>
+      <c r="A352" s="112"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="73"/>
+      <c r="A353" s="112"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="73"/>
+      <c r="A354" s="112"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="73"/>
+      <c r="A355" s="112"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="73"/>
+      <c r="A356" s="112"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="73"/>
+      <c r="A357" s="112"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="73"/>
+      <c r="A358" s="112"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="73"/>
+      <c r="A359" s="112"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="73"/>
+      <c r="A360" s="112"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="73"/>
+      <c r="A361" s="112"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="73"/>
+      <c r="A362" s="112"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="73"/>
+      <c r="A363" s="112"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="73"/>
+      <c r="A364" s="112"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="73"/>
+      <c r="A365" s="112"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="73"/>
+      <c r="A366" s="112"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="73"/>
+      <c r="A367" s="112"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="73"/>
+      <c r="A368" s="112"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="73"/>
+      <c r="A369" s="112"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="73"/>
+      <c r="A370" s="112"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="73"/>
+      <c r="A371" s="112"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="73"/>
+      <c r="A372" s="112"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="73"/>
+      <c r="A373" s="112"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="73"/>
+      <c r="A374" s="112"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="73"/>
+      <c r="A375" s="112"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="73"/>
+      <c r="A376" s="112"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="73"/>
+      <c r="A377" s="112"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="73"/>
+      <c r="A378" s="112"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="73"/>
+      <c r="A379" s="112"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="73"/>
+      <c r="A380" s="112"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="73"/>
+      <c r="A381" s="112"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="73"/>
+      <c r="A382" s="112"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="73"/>
+      <c r="A383" s="112"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="73"/>
+      <c r="A384" s="112"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="73"/>
+      <c r="A385" s="112"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="73"/>
+      <c r="A386" s="112"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="73"/>
+      <c r="A387" s="112"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="73"/>
+      <c r="A388" s="112"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="73"/>
+      <c r="A389" s="112"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="73"/>
+      <c r="A390" s="112"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="73"/>
+      <c r="A391" s="112"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="73"/>
+      <c r="A392" s="112"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="73"/>
+      <c r="A393" s="112"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="73"/>
+      <c r="A394" s="112"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="73"/>
+      <c r="A395" s="112"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="73"/>
+      <c r="A396" s="112"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="73"/>
+      <c r="A397" s="112"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="73"/>
+      <c r="A398" s="112"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="73"/>
+      <c r="A399" s="112"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="73"/>
+      <c r="A400" s="112"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="73"/>
+      <c r="A401" s="112"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="73"/>
+      <c r="A402" s="112"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="73"/>
+      <c r="A403" s="112"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="73"/>
+      <c r="A404" s="112"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="73"/>
+      <c r="A405" s="112"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="73"/>
+      <c r="A406" s="112"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="73"/>
+      <c r="A407" s="112"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="73"/>
+      <c r="A408" s="112"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="73"/>
+      <c r="A409" s="112"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="73"/>
+      <c r="A410" s="112"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="73"/>
+      <c r="A411" s="112"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="73"/>
+      <c r="A412" s="112"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="73"/>
+      <c r="A413" s="112"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="73"/>
+      <c r="A414" s="112"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="73"/>
+      <c r="A415" s="112"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="73"/>
+      <c r="A416" s="112"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="73"/>
+      <c r="A417" s="112"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="73"/>
+      <c r="A418" s="112"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="73"/>
+      <c r="A419" s="112"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="73"/>
+      <c r="A420" s="112"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="73"/>
+      <c r="A421" s="112"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="73"/>
+      <c r="A422" s="112"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="73"/>
+      <c r="A423" s="112"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="73"/>
+      <c r="A424" s="112"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="73"/>
+      <c r="A425" s="112"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="73"/>
+      <c r="A426" s="112"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="73"/>
+      <c r="A427" s="112"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="73"/>
+      <c r="A428" s="112"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="73"/>
+      <c r="A429" s="112"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="73"/>
+      <c r="A430" s="112"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="73"/>
+      <c r="A431" s="112"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="73"/>
+      <c r="A432" s="112"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="73"/>
+      <c r="A433" s="112"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="73"/>
+      <c r="A434" s="112"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="73"/>
+      <c r="A435" s="112"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="73"/>
+      <c r="A436" s="112"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="73"/>
+      <c r="A437" s="112"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="73"/>
+      <c r="A438" s="112"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="73"/>
+      <c r="A439" s="112"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="73"/>
+      <c r="A440" s="112"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="73"/>
+      <c r="A441" s="112"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="73"/>
+      <c r="A442" s="112"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="73"/>
+      <c r="A443" s="112"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="73"/>
+      <c r="A444" s="112"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="73"/>
+      <c r="A445" s="112"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="73"/>
+      <c r="A446" s="112"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="73"/>
+      <c r="A447" s="112"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="73"/>
+      <c r="A448" s="112"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="73"/>
+      <c r="A449" s="112"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="73"/>
+      <c r="A450" s="112"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="73"/>
+      <c r="A451" s="112"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="73"/>
+      <c r="A452" s="112"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="73"/>
+      <c r="A453" s="112"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="73"/>
+      <c r="A454" s="112"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="73"/>
+      <c r="A455" s="112"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="73"/>
+      <c r="A456" s="112"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="73"/>
+      <c r="A457" s="112"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="73"/>
+      <c r="A458" s="112"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="73"/>
+      <c r="A459" s="112"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="73"/>
+      <c r="A460" s="112"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="73"/>
+      <c r="A461" s="112"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="73"/>
+      <c r="A462" s="112"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="73"/>
+      <c r="A463" s="112"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="73"/>
+      <c r="A464" s="112"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="73"/>
+      <c r="A465" s="112"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="73"/>
+      <c r="A466" s="112"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="73"/>
+      <c r="A467" s="112"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="73"/>
+      <c r="A468" s="112"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="73"/>
+      <c r="A469" s="112"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="73"/>
+      <c r="A470" s="112"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="73"/>
+      <c r="A471" s="112"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="73"/>
+      <c r="A472" s="112"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="73"/>
+      <c r="A473" s="112"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="73"/>
+      <c r="A474" s="112"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="73"/>
+      <c r="A475" s="112"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="73"/>
+      <c r="A476" s="112"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="73"/>
+      <c r="A477" s="112"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="73"/>
+      <c r="A478" s="112"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="73"/>
+      <c r="A479" s="112"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="73"/>
+      <c r="A480" s="112"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="73"/>
+      <c r="A481" s="112"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="73"/>
+      <c r="A482" s="112"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="73"/>
+      <c r="A483" s="112"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="73"/>
+      <c r="A484" s="112"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="73"/>
+      <c r="A485" s="112"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="73"/>
+      <c r="A486" s="112"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="73"/>
+      <c r="A487" s="112"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="73"/>
+      <c r="A488" s="112"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="73"/>
+      <c r="A489" s="112"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="73"/>
+      <c r="A490" s="112"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="73"/>
+      <c r="A491" s="112"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="73"/>
+      <c r="A492" s="112"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="73"/>
+      <c r="A493" s="112"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="73"/>
+      <c r="A494" s="112"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="73"/>
+      <c r="A495" s="112"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="73"/>
+      <c r="A496" s="112"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="73"/>
+      <c r="A497" s="112"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="73"/>
+      <c r="A498" s="112"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="73"/>
+      <c r="A499" s="112"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="73"/>
+      <c r="A500" s="112"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="73"/>
+      <c r="A501" s="112"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="73"/>
+      <c r="A502" s="112"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="73"/>
+      <c r="A503" s="112"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="73"/>
+      <c r="A504" s="112"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="73"/>
+      <c r="A505" s="112"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="73"/>
+      <c r="A506" s="112"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="73"/>
+      <c r="A507" s="112"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="73"/>
+      <c r="A508" s="112"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="73"/>
+      <c r="A509" s="112"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="73"/>
+      <c r="A510" s="112"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="73"/>
+      <c r="A511" s="112"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="73"/>
+      <c r="A512" s="112"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="73"/>
+      <c r="A513" s="112"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="73"/>
+      <c r="A514" s="112"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="73"/>
+      <c r="A515" s="112"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="73"/>
+      <c r="A516" s="112"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="73"/>
+      <c r="A517" s="112"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="73"/>
+      <c r="A518" s="112"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="73"/>
+      <c r="A519" s="112"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="73"/>
+      <c r="A520" s="112"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="73"/>
+      <c r="A521" s="112"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="73"/>
+      <c r="A522" s="112"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="73"/>
+      <c r="A523" s="112"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="73"/>
+      <c r="A524" s="112"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="73"/>
+      <c r="A525" s="112"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" s="73"/>
+      <c r="A526" s="112"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="73"/>
+      <c r="A527" s="112"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="73"/>
+      <c r="A528" s="112"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" s="73"/>
+      <c r="A529" s="112"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" s="73"/>
+      <c r="A530" s="112"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" s="73"/>
+      <c r="A531" s="112"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="73"/>
+      <c r="A532" s="112"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" s="73"/>
+      <c r="A533" s="112"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" s="73"/>
+      <c r="A534" s="112"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="73"/>
+      <c r="A535" s="112"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="73"/>
+      <c r="A536" s="112"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" s="73"/>
+      <c r="A537" s="112"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" s="73"/>
+      <c r="A538" s="112"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" s="73"/>
+      <c r="A539" s="112"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" s="73"/>
+      <c r="A540" s="112"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" s="73"/>
+      <c r="A541" s="112"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" s="73"/>
+      <c r="A542" s="112"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" s="73"/>
+      <c r="A543" s="112"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" s="73"/>
+      <c r="A544" s="112"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" s="73"/>
+      <c r="A545" s="112"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" s="73"/>
+      <c r="A546" s="112"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" s="73"/>
+      <c r="A547" s="112"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" s="73"/>
+      <c r="A548" s="112"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" s="73"/>
+      <c r="A549" s="112"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" s="73"/>
+      <c r="A550" s="112"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" s="73"/>
+      <c r="A551" s="112"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" s="73"/>
+      <c r="A552" s="112"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" s="73"/>
+      <c r="A553" s="112"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" s="73"/>
+      <c r="A554" s="112"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" s="73"/>
+      <c r="A555" s="112"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" s="73"/>
+      <c r="A556" s="112"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" s="73"/>
+      <c r="A557" s="112"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" s="73"/>
+      <c r="A558" s="112"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" s="73"/>
+      <c r="A559" s="112"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" s="73"/>
+      <c r="A560" s="112"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" s="73"/>
+      <c r="A561" s="112"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" s="73"/>
+      <c r="A562" s="112"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" s="73"/>
+      <c r="A563" s="112"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564" s="73"/>
+      <c r="A564" s="112"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A565" s="73"/>
+      <c r="A565" s="112"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A566" s="73"/>
+      <c r="A566" s="112"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A567" s="73"/>
+      <c r="A567" s="112"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A568" s="73"/>
+      <c r="A568" s="112"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A569" s="73"/>
+      <c r="A569" s="112"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" s="73"/>
+      <c r="A570" s="112"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A571" s="73"/>
+      <c r="A571" s="112"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" s="73"/>
+      <c r="A572" s="112"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" s="73"/>
+      <c r="A573" s="112"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" s="73"/>
+      <c r="A574" s="112"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" s="73"/>
+      <c r="A575" s="112"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" s="73"/>
+      <c r="A576" s="112"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="73"/>
+      <c r="A577" s="112"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" s="73"/>
+      <c r="A578" s="112"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" s="73"/>
+      <c r="A579" s="112"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" s="73"/>
+      <c r="A580" s="112"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" s="73"/>
+      <c r="A581" s="112"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" s="73"/>
+      <c r="A582" s="112"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" s="73"/>
+      <c r="A583" s="112"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" s="73"/>
+      <c r="A584" s="112"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" s="73"/>
+      <c r="A585" s="112"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" s="73"/>
+      <c r="A586" s="112"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" s="73"/>
+      <c r="A587" s="112"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" s="73"/>
+      <c r="A588" s="112"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" s="73"/>
+      <c r="A589" s="112"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" s="73"/>
+      <c r="A590" s="112"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" s="73"/>
+      <c r="A591" s="112"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" s="73"/>
+      <c r="A592" s="112"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" s="73"/>
+      <c r="A593" s="112"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" s="73"/>
+      <c r="A594" s="112"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" s="73"/>
+      <c r="A595" s="112"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" s="73"/>
+      <c r="A596" s="112"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" s="73"/>
+      <c r="A597" s="112"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" s="73"/>
+      <c r="A598" s="112"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A599" s="73"/>
+      <c r="A599" s="112"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" s="73"/>
+      <c r="A600" s="112"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" s="73"/>
+      <c r="A601" s="112"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A602" s="73"/>
+      <c r="A602" s="112"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" s="73"/>
+      <c r="A603" s="112"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" s="73"/>
+      <c r="A604" s="112"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A605" s="73"/>
+      <c r="A605" s="112"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606" s="73"/>
+      <c r="A606" s="112"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A607" s="73"/>
+      <c r="A607" s="112"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" s="73"/>
+      <c r="A608" s="112"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" s="73"/>
+      <c r="A609" s="112"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" s="73"/>
+      <c r="A610" s="112"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" s="73"/>
+      <c r="A611" s="112"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" s="73"/>
+      <c r="A612" s="112"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A613" s="73"/>
+      <c r="A613" s="112"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A614" s="73"/>
+      <c r="A614" s="112"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" s="73"/>
+      <c r="A615" s="112"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A616" s="73"/>
+      <c r="A616" s="112"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" s="73"/>
+      <c r="A617" s="112"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618" s="73"/>
+      <c r="A618" s="112"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A619" s="73"/>
+      <c r="A619" s="112"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" s="73"/>
+      <c r="A620" s="112"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A621" s="73"/>
+      <c r="A621" s="112"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A622" s="73"/>
+      <c r="A622" s="112"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A623" s="73"/>
+      <c r="A623" s="112"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624" s="73"/>
+      <c r="A624" s="112"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" s="73"/>
+      <c r="A625" s="112"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" s="73"/>
+      <c r="A626" s="112"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A627" s="73"/>
+      <c r="A627" s="112"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A628" s="73"/>
+      <c r="A628" s="112"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A629" s="73"/>
+      <c r="A629" s="112"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" s="73"/>
+      <c r="A630" s="112"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" s="73"/>
+      <c r="A631" s="112"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" s="73"/>
+      <c r="A632" s="112"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" s="73"/>
+      <c r="A633" s="112"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" s="73"/>
+      <c r="A634" s="112"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" s="73"/>
+      <c r="A635" s="112"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" s="73"/>
+      <c r="A636" s="112"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A637" s="73"/>
+      <c r="A637" s="112"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" s="73"/>
+      <c r="A638" s="112"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A639" s="73"/>
+      <c r="A639" s="112"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" s="73"/>
+      <c r="A640" s="112"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A641" s="73"/>
+      <c r="A641" s="112"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A642" s="73"/>
+      <c r="A642" s="112"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A643" s="73"/>
+      <c r="A643" s="112"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A644" s="73"/>
+      <c r="A644" s="112"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A645" s="73"/>
+      <c r="A645" s="112"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A646" s="73"/>
+      <c r="A646" s="112"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A647" s="73"/>
+      <c r="A647" s="112"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648" s="73"/>
+      <c r="A648" s="112"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A649" s="73"/>
+      <c r="A649" s="112"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A650" s="73"/>
+      <c r="A650" s="112"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A651" s="73"/>
+      <c r="A651" s="112"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A652" s="73"/>
+      <c r="A652" s="112"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A653" s="73"/>
+      <c r="A653" s="112"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A654" s="73"/>
+      <c r="A654" s="112"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A655" s="73"/>
+      <c r="A655" s="112"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A656" s="73"/>
+      <c r="A656" s="112"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A657" s="73"/>
+      <c r="A657" s="112"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A658" s="73"/>
+      <c r="A658" s="112"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A659" s="73"/>
+      <c r="A659" s="112"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660" s="73"/>
+      <c r="A660" s="112"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661" s="73"/>
+      <c r="A661" s="112"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A662" s="73"/>
+      <c r="A662" s="112"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A663" s="73"/>
+      <c r="A663" s="112"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A664" s="73"/>
+      <c r="A664" s="112"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A665" s="73"/>
+      <c r="A665" s="112"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666" s="73"/>
+      <c r="A666" s="112"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A667" s="73"/>
+      <c r="A667" s="112"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A668" s="73"/>
+      <c r="A668" s="112"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A669" s="73"/>
+      <c r="A669" s="112"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A670" s="73"/>
+      <c r="A670" s="112"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A671" s="73"/>
+      <c r="A671" s="112"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A672" s="73"/>
+      <c r="A672" s="112"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A673" s="73"/>
+      <c r="A673" s="112"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A674" s="73"/>
+      <c r="A674" s="112"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A675" s="73"/>
+      <c r="A675" s="112"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A676" s="73"/>
+      <c r="A676" s="112"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A677" s="73"/>
+      <c r="A677" s="112"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678" s="73"/>
+      <c r="A678" s="112"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A679" s="73"/>
+      <c r="A679" s="112"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A680" s="73"/>
+      <c r="A680" s="112"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A681" s="73"/>
+      <c r="A681" s="112"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A682" s="73"/>
+      <c r="A682" s="112"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A683" s="73"/>
+      <c r="A683" s="112"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="73"/>
+      <c r="A684" s="112"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A685" s="73"/>
+      <c r="A685" s="112"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="73"/>
+      <c r="A686" s="112"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687" s="73"/>
+      <c r="A687" s="112"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A688" s="73"/>
+      <c r="A688" s="112"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A689" s="73"/>
+      <c r="A689" s="112"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A690" s="73"/>
+      <c r="A690" s="112"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A691" s="73"/>
+      <c r="A691" s="112"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A692" s="73"/>
+      <c r="A692" s="112"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A693" s="73"/>
+      <c r="A693" s="112"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A694" s="73"/>
+      <c r="A694" s="112"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A695" s="73"/>
+      <c r="A695" s="112"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A696" s="73"/>
+      <c r="A696" s="112"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A697" s="73"/>
+      <c r="A697" s="112"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A698" s="73"/>
+      <c r="A698" s="112"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A699" s="73"/>
+      <c r="A699" s="112"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A700" s="73"/>
+      <c r="A700" s="112"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A701" s="73"/>
+      <c r="A701" s="112"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A702" s="73"/>
+      <c r="A702" s="112"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A703" s="73"/>
+      <c r="A703" s="112"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A704" s="73"/>
+      <c r="A704" s="112"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A705" s="73"/>
+      <c r="A705" s="112"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A706" s="73"/>
+      <c r="A706" s="112"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A707" s="73"/>
+      <c r="A707" s="112"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" s="73"/>
+      <c r="A708" s="112"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" s="73"/>
+      <c r="A709" s="112"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A710" s="73"/>
+      <c r="A710" s="112"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" s="73"/>
+      <c r="A711" s="112"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" s="73"/>
+      <c r="A712" s="112"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A713" s="73"/>
+      <c r="A713" s="112"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714" s="73"/>
+      <c r="A714" s="112"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" s="73"/>
+      <c r="A715" s="112"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A716" s="73"/>
+      <c r="A716" s="112"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A717" s="73"/>
+      <c r="A717" s="112"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" s="73"/>
+      <c r="A718" s="112"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A719" s="73"/>
+      <c r="A719" s="112"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720" s="73"/>
+      <c r="A720" s="112"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" s="73"/>
+      <c r="A721" s="112"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A722" s="73"/>
+      <c r="A722" s="112"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A723" s="73"/>
+      <c r="A723" s="112"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A724" s="73"/>
+      <c r="A724" s="112"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A725" s="73"/>
+      <c r="A725" s="112"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726" s="73"/>
+      <c r="A726" s="112"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A727" s="73"/>
+      <c r="A727" s="112"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A728" s="73"/>
+      <c r="A728" s="112"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729" s="73"/>
+      <c r="A729" s="112"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A730" s="73"/>
+      <c r="A730" s="112"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A731" s="73"/>
+      <c r="A731" s="112"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732" s="73"/>
+      <c r="A732" s="112"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" s="73"/>
+      <c r="A733" s="112"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" s="73"/>
+      <c r="A734" s="112"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A735" s="73"/>
+      <c r="A735" s="112"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A736" s="73"/>
+      <c r="A736" s="112"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A737" s="73"/>
+      <c r="A737" s="112"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738" s="73"/>
+      <c r="A738" s="112"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A739" s="73"/>
+      <c r="A739" s="112"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A740" s="73"/>
+      <c r="A740" s="112"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A741" s="73"/>
+      <c r="A741" s="112"/>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A742" s="73"/>
+      <c r="A742" s="112"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:Q8"/>
   <mergeCells count="27">
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -4396,6 +4362,8 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -4410,10 +4378,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0.34" footer="0.51181102362204722"/>
@@ -4449,107 +4413,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="109"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="109"/>
+      <c r="M2" s="106"/>
       <c r="N2" s="6"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="81" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="81" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82" t="s">
+      <c r="L5" s="90"/>
+      <c r="M5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="81" t="s">
+      <c r="N5" s="89"/>
+      <c r="O5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82" t="s">
+      <c r="P5" s="90"/>
+      <c r="Q5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="83"/>
+      <c r="R5" s="105"/>
     </row>
     <row r="6" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
@@ -4600,7 +4564,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="32">
         <v>1</v>
       </c>
@@ -4894,7 +4858,7 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="107" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="14">
@@ -4942,7 +4906,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="60">
         <v>6</v>
       </c>
@@ -4980,7 +4944,7 @@
       <c r="R14" s="44"/>
     </row>
     <row r="15" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="101" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="14">
@@ -5028,7 +4992,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="13">
         <v>8</v>
       </c>
@@ -5074,7 +5038,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="22">
         <v>9</v>
       </c>
@@ -5507,76 +5471,73 @@
       <c r="R36" s="99"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
       <c r="R37" s="66"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="66"/>
       <c r="Q38" s="66"/>
       <c r="R38" s="66"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="66"/>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A24:O24"/>
     <mergeCell ref="A37:O37"/>
     <mergeCell ref="A38:O38"/>
     <mergeCell ref="A25:O25"/>
@@ -5611,6 +5572,9 @@
     <mergeCell ref="A31:O31"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A24:O24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.55000000000000004" bottom="0" header="0.4" footer="0.35"/>
